--- a/Code/Results/Cases/Case_3_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006932512411279</v>
+        <v>1.037796343593383</v>
       </c>
       <c r="D2">
-        <v>1.027101670464955</v>
+        <v>1.044486559985052</v>
       </c>
       <c r="E2">
-        <v>1.022748846993786</v>
+        <v>1.046456344966288</v>
       </c>
       <c r="F2">
-        <v>1.034475686822693</v>
+        <v>1.057143380765936</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047119116889345</v>
+        <v>1.037152754562994</v>
       </c>
       <c r="J2">
-        <v>1.02890783203354</v>
+        <v>1.042897267295881</v>
       </c>
       <c r="K2">
-        <v>1.038195919086103</v>
+        <v>1.047257473777299</v>
       </c>
       <c r="L2">
-        <v>1.033900096838566</v>
+        <v>1.049221729870916</v>
       </c>
       <c r="M2">
-        <v>1.045474739334778</v>
+        <v>1.059879157906199</v>
       </c>
       <c r="N2">
-        <v>1.03036899917241</v>
+        <v>1.04437830103743</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011233032984448</v>
+        <v>1.038722957236643</v>
       </c>
       <c r="D3">
-        <v>1.030199522654767</v>
+        <v>1.045174204342635</v>
       </c>
       <c r="E3">
-        <v>1.026232994248898</v>
+        <v>1.047255848676656</v>
       </c>
       <c r="F3">
-        <v>1.038092267905159</v>
+        <v>1.057969102210669</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048050467273513</v>
+        <v>1.037295165172657</v>
       </c>
       <c r="J3">
-        <v>1.031422088809522</v>
+        <v>1.043468523255932</v>
       </c>
       <c r="K3">
-        <v>1.040460043539445</v>
+        <v>1.047756688465756</v>
       </c>
       <c r="L3">
-        <v>1.036540870919864</v>
+        <v>1.049832911356265</v>
       </c>
       <c r="M3">
-        <v>1.048259890114774</v>
+        <v>1.060518627133846</v>
       </c>
       <c r="N3">
-        <v>1.032886826481399</v>
+        <v>1.044950368246468</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01396363680929</v>
+        <v>1.039323247188092</v>
       </c>
       <c r="D4">
-        <v>1.032169018291283</v>
+        <v>1.045619594724897</v>
       </c>
       <c r="E4">
-        <v>1.028450970920113</v>
+        <v>1.047774126278463</v>
       </c>
       <c r="F4">
-        <v>1.040393622340367</v>
+        <v>1.058504248678144</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048631968862069</v>
+        <v>1.037386175359054</v>
       </c>
       <c r="J4">
-        <v>1.033016772537898</v>
+        <v>1.043838242508672</v>
       </c>
       <c r="K4">
-        <v>1.041894095930971</v>
+        <v>1.048079473414449</v>
       </c>
       <c r="L4">
-        <v>1.038217728499489</v>
+        <v>1.05022867559141</v>
       </c>
       <c r="M4">
-        <v>1.050027800749565</v>
+        <v>1.060932603640604</v>
       </c>
       <c r="N4">
-        <v>1.034483774843581</v>
+        <v>1.045320612542954</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01509952103429</v>
+        <v>1.039575777467496</v>
       </c>
       <c r="D5">
-        <v>1.032988845311581</v>
+        <v>1.045806940139133</v>
       </c>
       <c r="E5">
-        <v>1.029374941175412</v>
+        <v>1.047992234786214</v>
       </c>
       <c r="F5">
-        <v>1.041352099043489</v>
+        <v>1.058729425816858</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048871459114327</v>
+        <v>1.037424162729044</v>
       </c>
       <c r="J5">
-        <v>1.033679683554401</v>
+        <v>1.043993690045021</v>
       </c>
       <c r="K5">
-        <v>1.042489742038092</v>
+        <v>1.048215113411468</v>
       </c>
       <c r="L5">
-        <v>1.03891525963002</v>
+        <v>1.05039512270698</v>
       </c>
       <c r="M5">
-        <v>1.050763051393609</v>
+        <v>1.061106685075199</v>
       </c>
       <c r="N5">
-        <v>1.035147627269765</v>
+        <v>1.045476280832635</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015289545442212</v>
+        <v>1.039618188247749</v>
       </c>
       <c r="D6">
-        <v>1.033126026672975</v>
+        <v>1.045838402267072</v>
       </c>
       <c r="E6">
-        <v>1.029529590992391</v>
+        <v>1.048028869286182</v>
       </c>
       <c r="F6">
-        <v>1.041512510903519</v>
+        <v>1.058767245816647</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048911381471124</v>
+        <v>1.037430524930064</v>
       </c>
       <c r="J6">
-        <v>1.033790555900623</v>
+        <v>1.044019791364857</v>
       </c>
       <c r="K6">
-        <v>1.042589335035723</v>
+        <v>1.048237884479439</v>
       </c>
       <c r="L6">
-        <v>1.039031949210538</v>
+        <v>1.050423073848697</v>
       </c>
       <c r="M6">
-        <v>1.050886041676442</v>
+        <v>1.061135916751314</v>
       </c>
       <c r="N6">
-        <v>1.035258657067436</v>
+        <v>1.045502419219339</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013978861405963</v>
+        <v>1.039326620850085</v>
       </c>
       <c r="D7">
-        <v>1.032180004574668</v>
+        <v>1.045622097639716</v>
       </c>
       <c r="E7">
-        <v>1.028463349974824</v>
+        <v>1.047777039774599</v>
       </c>
       <c r="F7">
-        <v>1.04040646460407</v>
+        <v>1.05850725671635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048635188367687</v>
+        <v>1.037386684022871</v>
       </c>
       <c r="J7">
-        <v>1.033025659553077</v>
+        <v>1.043840319538778</v>
       </c>
       <c r="K7">
-        <v>1.041902083145634</v>
+        <v>1.048081286075332</v>
       </c>
       <c r="L7">
-        <v>1.038227077818098</v>
+        <v>1.05023089940107</v>
       </c>
       <c r="M7">
-        <v>1.050037656265185</v>
+        <v>1.060934929547508</v>
       </c>
       <c r="N7">
-        <v>1.034492674479341</v>
+        <v>1.045322692522682</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008396942071598</v>
+        <v>1.038109349407852</v>
       </c>
       <c r="D8">
-        <v>1.028156000620081</v>
+        <v>1.044718860810558</v>
       </c>
       <c r="E8">
-        <v>1.023934055236873</v>
+        <v>1.046726344255241</v>
       </c>
       <c r="F8">
-        <v>1.035706136624048</v>
+        <v>1.057422260220113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047438304137156</v>
+        <v>1.037201118351832</v>
       </c>
       <c r="J8">
-        <v>1.029764339520661</v>
+        <v>1.04309030894647</v>
       </c>
       <c r="K8">
-        <v>1.038967623216522</v>
+        <v>1.04742623472514</v>
       </c>
       <c r="L8">
-        <v>1.034799297674173</v>
+        <v>1.049428220879776</v>
       </c>
       <c r="M8">
-        <v>1.046423228111405</v>
+        <v>1.06009522780818</v>
       </c>
       <c r="N8">
-        <v>1.031226722998401</v>
+        <v>1.044571616829304</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9981420123364674</v>
+        <v>1.035969850894696</v>
       </c>
       <c r="D9">
-        <v>1.020785864036897</v>
+        <v>1.043130674763824</v>
       </c>
       <c r="E9">
-        <v>1.015660539716999</v>
+        <v>1.044882198548658</v>
       </c>
       <c r="F9">
-        <v>1.027113088774468</v>
+        <v>1.05551694346111</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045163081586199</v>
+        <v>1.036865432572956</v>
       </c>
       <c r="J9">
-        <v>1.023760551971696</v>
+        <v>1.041769349124878</v>
       </c>
       <c r="K9">
-        <v>1.033550472287697</v>
+        <v>1.046270165486244</v>
       </c>
       <c r="L9">
-        <v>1.028504544465807</v>
+        <v>1.04801607111638</v>
       </c>
       <c r="M9">
-        <v>1.039781074511863</v>
+        <v>1.058617141837636</v>
       </c>
       <c r="N9">
-        <v>1.025214409382472</v>
+        <v>1.04324878109325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9909946223587013</v>
+        <v>1.034547288784873</v>
       </c>
       <c r="D10">
-        <v>1.015668271274228</v>
+        <v>1.042074291999803</v>
       </c>
       <c r="E10">
-        <v>1.009929494531015</v>
+        <v>1.043657786103207</v>
       </c>
       <c r="F10">
-        <v>1.021156214887874</v>
+        <v>1.054251267463764</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043528299366832</v>
+        <v>1.036635833504705</v>
       </c>
       <c r="J10">
-        <v>1.019570145909995</v>
+        <v>1.04088922175804</v>
       </c>
       <c r="K10">
-        <v>1.029760277785026</v>
+        <v>1.045498327310359</v>
       </c>
       <c r="L10">
-        <v>1.024121753743603</v>
+        <v>1.047076245590065</v>
       </c>
       <c r="M10">
-        <v>1.035153712408167</v>
+        <v>1.057632899206667</v>
       </c>
       <c r="N10">
-        <v>1.021018052463518</v>
+        <v>1.042367403844599</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9878190100483931</v>
+        <v>1.033932214491339</v>
       </c>
       <c r="D11">
-        <v>1.013399960606572</v>
+        <v>1.041617458798077</v>
       </c>
       <c r="E11">
-        <v>1.007392307146563</v>
+        <v>1.043128813357303</v>
       </c>
       <c r="F11">
-        <v>1.018518061233979</v>
+        <v>1.053704314066608</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042790937666501</v>
+        <v>1.036535044777636</v>
       </c>
       <c r="J11">
-        <v>1.017707461558313</v>
+        <v>1.040508253627085</v>
       </c>
       <c r="K11">
-        <v>1.028073521638552</v>
+        <v>1.04516386166381</v>
       </c>
       <c r="L11">
-        <v>1.022176149012046</v>
+        <v>1.046669688853882</v>
       </c>
       <c r="M11">
-        <v>1.033099004272175</v>
+        <v>1.057207002198779</v>
       </c>
       <c r="N11">
-        <v>1.019152722886404</v>
+        <v>1.0419858946952</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.986626674652037</v>
+        <v>1.033703885708178</v>
       </c>
       <c r="D12">
-        <v>1.012549186598088</v>
+        <v>1.041447860569683</v>
       </c>
       <c r="E12">
-        <v>1.006441118848787</v>
+        <v>1.042932512209539</v>
       </c>
       <c r="F12">
-        <v>1.017528878874466</v>
+        <v>1.053501317204002</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042512480631338</v>
+        <v>1.03649740202532</v>
       </c>
       <c r="J12">
-        <v>1.017008003200567</v>
+        <v>1.040366766265931</v>
       </c>
       <c r="K12">
-        <v>1.027439849511373</v>
+        <v>1.045039589230721</v>
       </c>
       <c r="L12">
-        <v>1.021445948909769</v>
+        <v>1.046518736106394</v>
       </c>
       <c r="M12">
-        <v>1.032327785988627</v>
+        <v>1.057048849630404</v>
       </c>
       <c r="N12">
-        <v>1.01845227121756</v>
+        <v>1.041844206405765</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9868830233271956</v>
+        <v>1.033752856777821</v>
       </c>
       <c r="D13">
-        <v>1.012732058548536</v>
+        <v>1.041484235867131</v>
       </c>
       <c r="E13">
-        <v>1.00664555540645</v>
+        <v>1.042974611168881</v>
       </c>
       <c r="F13">
-        <v>1.017741487704426</v>
+        <v>1.053544853179825</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042572419628807</v>
+        <v>1.036505485805216</v>
       </c>
       <c r="J13">
-        <v>1.017158387702239</v>
+        <v>1.040397114807984</v>
       </c>
       <c r="K13">
-        <v>1.027576102071444</v>
+        <v>1.045066247743652</v>
       </c>
       <c r="L13">
-        <v>1.021602924949845</v>
+        <v>1.04655111322262</v>
       </c>
       <c r="M13">
-        <v>1.032493583031747</v>
+        <v>1.057082771853525</v>
       </c>
       <c r="N13">
-        <v>1.018602869282474</v>
+        <v>1.041874598046228</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9877207156197247</v>
+        <v>1.033913337956568</v>
       </c>
       <c r="D14">
-        <v>1.013329805231471</v>
+        <v>1.041603437910579</v>
       </c>
       <c r="E14">
-        <v>1.00731386286308</v>
+        <v>1.043112583302576</v>
       </c>
       <c r="F14">
-        <v>1.018436486435595</v>
+        <v>1.053687530886095</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042768014333898</v>
+        <v>1.036531937401106</v>
       </c>
       <c r="J14">
-        <v>1.017649800617951</v>
+        <v>1.040496557798909</v>
       </c>
       <c r="K14">
-        <v>1.028021289401408</v>
+        <v>1.045153590013254</v>
       </c>
       <c r="L14">
-        <v>1.022115945747658</v>
+        <v>1.046657209810189</v>
       </c>
       <c r="M14">
-        <v>1.033035420541802</v>
+        <v>1.057193928340833</v>
       </c>
       <c r="N14">
-        <v>1.019094980060892</v>
+        <v>1.041974182257607</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9882351332686702</v>
+        <v>1.034012233926274</v>
       </c>
       <c r="D15">
-        <v>1.013696996126283</v>
+        <v>1.041676894195446</v>
       </c>
       <c r="E15">
-        <v>1.007724455166041</v>
+        <v>1.043197616772546</v>
       </c>
       <c r="F15">
-        <v>1.01886345869924</v>
+        <v>1.053775461378633</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042887917115136</v>
+        <v>1.036548207912448</v>
       </c>
       <c r="J15">
-        <v>1.017951562384898</v>
+        <v>1.040557830748455</v>
       </c>
       <c r="K15">
-        <v>1.028294629519644</v>
+        <v>1.045207399602896</v>
       </c>
       <c r="L15">
-        <v>1.022431028640967</v>
+        <v>1.046722587479958</v>
       </c>
       <c r="M15">
-        <v>1.033368192782134</v>
+        <v>1.057262421468387</v>
       </c>
       <c r="N15">
-        <v>1.019397170364161</v>
+        <v>1.042035542221769</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9912036223420203</v>
+        <v>1.034588128407957</v>
       </c>
       <c r="D16">
-        <v>1.015817678528578</v>
+        <v>1.042104623037832</v>
       </c>
       <c r="E16">
-        <v>1.01009667332407</v>
+        <v>1.04369291783529</v>
       </c>
       <c r="F16">
-        <v>1.021330026382601</v>
+        <v>1.054287590136059</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043576602768395</v>
+        <v>1.036642493691797</v>
       </c>
       <c r="J16">
-        <v>1.019692722576598</v>
+        <v>1.040914508259934</v>
       </c>
       <c r="K16">
-        <v>1.029871237770457</v>
+        <v>1.045520519436233</v>
       </c>
       <c r="L16">
-        <v>1.024249841716091</v>
+        <v>1.047103235835849</v>
       </c>
       <c r="M16">
-        <v>1.035288972799485</v>
+        <v>1.057661170753069</v>
       </c>
       <c r="N16">
-        <v>1.021140803203047</v>
+        <v>1.042392726256226</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9930436199319275</v>
+        <v>1.034949614879132</v>
       </c>
       <c r="D17">
-        <v>1.017133663812846</v>
+        <v>1.042373084530816</v>
       </c>
       <c r="E17">
-        <v>1.011569534039148</v>
+        <v>1.04400393117076</v>
       </c>
       <c r="F17">
-        <v>1.0228612095895</v>
+        <v>1.054609128798389</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044000607321477</v>
+        <v>1.036701270099829</v>
       </c>
       <c r="J17">
-        <v>1.020771771460509</v>
+        <v>1.041138279054681</v>
       </c>
       <c r="K17">
-        <v>1.030847802176094</v>
+        <v>1.045716863950786</v>
       </c>
       <c r="L17">
-        <v>1.025377703435572</v>
+        <v>1.047342112905126</v>
       </c>
       <c r="M17">
-        <v>1.036479930572052</v>
+        <v>1.05791137341513</v>
       </c>
       <c r="N17">
-        <v>1.022221384460142</v>
+        <v>1.042616814831169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9941091140354593</v>
+        <v>1.035160551003916</v>
       </c>
       <c r="D18">
-        <v>1.017896229009442</v>
+        <v>1.04252973014976</v>
       </c>
       <c r="E18">
-        <v>1.012423292445427</v>
+        <v>1.044185456227075</v>
       </c>
       <c r="F18">
-        <v>1.023748680498179</v>
+        <v>1.054796782163976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044245086359358</v>
+        <v>1.036735421078879</v>
       </c>
       <c r="J18">
-        <v>1.021396534210856</v>
+        <v>1.041268813508045</v>
       </c>
       <c r="K18">
-        <v>1.031413038555264</v>
+        <v>1.045831363732669</v>
       </c>
       <c r="L18">
-        <v>1.026030974799989</v>
+        <v>1.047481483775407</v>
       </c>
       <c r="M18">
-        <v>1.037169696595829</v>
+        <v>1.058057339942244</v>
       </c>
       <c r="N18">
-        <v>1.022847034445256</v>
+        <v>1.042747534658429</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9944711250213227</v>
+        <v>1.035232489519299</v>
       </c>
       <c r="D19">
-        <v>1.018155401872801</v>
+        <v>1.042583151801692</v>
       </c>
       <c r="E19">
-        <v>1.012713508899955</v>
+        <v>1.044247371244599</v>
       </c>
       <c r="F19">
-        <v>1.024050340516905</v>
+        <v>1.054860784918165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044327970453672</v>
+        <v>1.036747043220133</v>
       </c>
       <c r="J19">
-        <v>1.021608786863445</v>
+        <v>1.041313324506572</v>
       </c>
       <c r="K19">
-        <v>1.031605035585726</v>
+        <v>1.045870400979862</v>
       </c>
       <c r="L19">
-        <v>1.026252954390605</v>
+        <v>1.047529012031035</v>
       </c>
       <c r="M19">
-        <v>1.037404067977603</v>
+        <v>1.058107115382978</v>
       </c>
       <c r="N19">
-        <v>1.023059588520957</v>
+        <v>1.042792108867679</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.992847011240788</v>
+        <v>1.034910821774756</v>
       </c>
       <c r="D20">
-        <v>1.016992993492406</v>
+        <v>1.042344275289541</v>
       </c>
       <c r="E20">
-        <v>1.011412064866901</v>
+        <v>1.04397055034773</v>
       </c>
       <c r="F20">
-        <v>1.022697514709517</v>
+        <v>1.054574619837704</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043955409916233</v>
+        <v>1.036694977628003</v>
       </c>
       <c r="J20">
-        <v>1.020656480773408</v>
+        <v>1.041114269240203</v>
       </c>
       <c r="K20">
-        <v>1.030743480830973</v>
+        <v>1.045695800583328</v>
       </c>
       <c r="L20">
-        <v>1.025257171769258</v>
+        <v>1.047316479724632</v>
       </c>
       <c r="M20">
-        <v>1.036352661254407</v>
+        <v>1.057884526177243</v>
       </c>
       <c r="N20">
-        <v>1.022105930047041</v>
+        <v>1.04259277092</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9874743940304651</v>
+        <v>1.033866076451525</v>
       </c>
       <c r="D21">
-        <v>1.013154013679185</v>
+        <v>1.04156833338277</v>
       </c>
       <c r="E21">
-        <v>1.007117308316862</v>
+        <v>1.043071948885913</v>
       </c>
       <c r="F21">
-        <v>1.018232085625636</v>
+        <v>1.053645511261196</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042710543817252</v>
+        <v>1.036524153728589</v>
       </c>
       <c r="J21">
-        <v>1.017505303619994</v>
+        <v>1.040467273722649</v>
       </c>
       <c r="K21">
-        <v>1.02789039221764</v>
+        <v>1.045127870903109</v>
       </c>
       <c r="L21">
-        <v>1.021965084140411</v>
+        <v>1.046625965327919</v>
       </c>
       <c r="M21">
-        <v>1.032876086813942</v>
+        <v>1.057161194284217</v>
       </c>
       <c r="N21">
-        <v>1.018950277860624</v>
+        <v>1.0419448565946</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.984022175735864</v>
+        <v>1.033209998023382</v>
       </c>
       <c r="D22">
-        <v>1.010692529942738</v>
+        <v>1.041080989247351</v>
       </c>
       <c r="E22">
-        <v>1.004366097655199</v>
+        <v>1.042508021427965</v>
       </c>
       <c r="F22">
-        <v>1.015370720585537</v>
+        <v>1.053062305046366</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041901343145857</v>
+        <v>1.036415562285513</v>
       </c>
       <c r="J22">
-        <v>1.015480030503646</v>
+        <v>1.040060605016918</v>
       </c>
       <c r="K22">
-        <v>1.02605510058826</v>
+        <v>1.044770577523307</v>
       </c>
       <c r="L22">
-        <v>1.019851554673369</v>
+        <v>1.046192162372326</v>
       </c>
       <c r="M22">
-        <v>1.030643708844305</v>
+        <v>1.056706665267738</v>
       </c>
       <c r="N22">
-        <v>1.016922128624148</v>
+        <v>1.041537610372661</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9858595240606953</v>
+        <v>1.033557721871787</v>
       </c>
       <c r="D23">
-        <v>1.012002061200119</v>
+        <v>1.041339289611274</v>
       </c>
       <c r="E23">
-        <v>1.005829537135824</v>
+        <v>1.042806869097761</v>
       </c>
       <c r="F23">
-        <v>1.016892829164627</v>
+        <v>1.053371381974298</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042332876208411</v>
+        <v>1.036473241035455</v>
       </c>
       <c r="J23">
-        <v>1.016557953227784</v>
+        <v>1.040276175723877</v>
       </c>
       <c r="K23">
-        <v>1.027032052630424</v>
+        <v>1.044960005317728</v>
       </c>
       <c r="L23">
-        <v>1.020976231142987</v>
+        <v>1.046422095821186</v>
       </c>
       <c r="M23">
-        <v>1.03183166358248</v>
+        <v>1.056947594702358</v>
       </c>
       <c r="N23">
-        <v>1.018001582122195</v>
+        <v>1.04175348721475</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9929358741344307</v>
+        <v>1.034928350439543</v>
       </c>
       <c r="D24">
-        <v>1.01705657186388</v>
+        <v>1.042357292771</v>
       </c>
       <c r="E24">
-        <v>1.011483234869214</v>
+        <v>1.04398563334584</v>
       </c>
       <c r="F24">
-        <v>1.022771498785966</v>
+        <v>1.054590212626464</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043975841431196</v>
+        <v>1.036697821334035</v>
       </c>
       <c r="J24">
-        <v>1.020708589950965</v>
+        <v>1.041125118202662</v>
       </c>
       <c r="K24">
-        <v>1.030790632662248</v>
+        <v>1.045705318288732</v>
       </c>
       <c r="L24">
-        <v>1.025311649005796</v>
+        <v>1.047328062138527</v>
       </c>
       <c r="M24">
-        <v>1.036410183897222</v>
+        <v>1.057896657203475</v>
       </c>
       <c r="N24">
-        <v>1.022158113225607</v>
+        <v>1.04260363528923</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000845689539097</v>
+        <v>1.03652230385677</v>
       </c>
       <c r="D25">
-        <v>1.022725951022641</v>
+        <v>1.043540841828093</v>
       </c>
       <c r="E25">
-        <v>1.017835956703429</v>
+        <v>1.045358077311575</v>
       </c>
       <c r="F25">
-        <v>1.029373323843226</v>
+        <v>1.056008722014586</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045771592469809</v>
+        <v>1.036953241956487</v>
       </c>
       <c r="J25">
-        <v>1.02534462633776</v>
+        <v>1.042110763868668</v>
       </c>
       <c r="K25">
-        <v>1.034981429597635</v>
+        <v>1.04656924092541</v>
       </c>
       <c r="L25">
-        <v>1.030163561086768</v>
+        <v>1.048380868167555</v>
       </c>
       <c r="M25">
-        <v>1.041532148318323</v>
+        <v>1.058999066628562</v>
       </c>
       <c r="N25">
-        <v>1.026800733315832</v>
+        <v>1.043590680685137</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037796343593383</v>
+        <v>1.006932512411278</v>
       </c>
       <c r="D2">
-        <v>1.044486559985052</v>
+        <v>1.027101670464955</v>
       </c>
       <c r="E2">
-        <v>1.046456344966288</v>
+        <v>1.022748846993785</v>
       </c>
       <c r="F2">
-        <v>1.057143380765936</v>
+        <v>1.034475686822693</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037152754562994</v>
+        <v>1.047119116889345</v>
       </c>
       <c r="J2">
-        <v>1.042897267295881</v>
+        <v>1.02890783203354</v>
       </c>
       <c r="K2">
-        <v>1.047257473777299</v>
+        <v>1.038195919086103</v>
       </c>
       <c r="L2">
-        <v>1.049221729870916</v>
+        <v>1.033900096838566</v>
       </c>
       <c r="M2">
-        <v>1.059879157906199</v>
+        <v>1.045474739334778</v>
       </c>
       <c r="N2">
-        <v>1.04437830103743</v>
+        <v>1.030368999172409</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038722957236643</v>
+        <v>1.011233032984448</v>
       </c>
       <c r="D3">
-        <v>1.045174204342635</v>
+        <v>1.030199522654767</v>
       </c>
       <c r="E3">
-        <v>1.047255848676656</v>
+        <v>1.026232994248897</v>
       </c>
       <c r="F3">
-        <v>1.057969102210669</v>
+        <v>1.038092267905159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037295165172657</v>
+        <v>1.048050467273513</v>
       </c>
       <c r="J3">
-        <v>1.043468523255932</v>
+        <v>1.031422088809522</v>
       </c>
       <c r="K3">
-        <v>1.047756688465756</v>
+        <v>1.040460043539445</v>
       </c>
       <c r="L3">
-        <v>1.049832911356265</v>
+        <v>1.036540870919863</v>
       </c>
       <c r="M3">
-        <v>1.060518627133846</v>
+        <v>1.048259890114774</v>
       </c>
       <c r="N3">
-        <v>1.044950368246468</v>
+        <v>1.032886826481399</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039323247188092</v>
+        <v>1.013963636809288</v>
       </c>
       <c r="D4">
-        <v>1.045619594724897</v>
+        <v>1.032169018291282</v>
       </c>
       <c r="E4">
-        <v>1.047774126278463</v>
+        <v>1.028450970920112</v>
       </c>
       <c r="F4">
-        <v>1.058504248678144</v>
+        <v>1.040393622340365</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037386175359054</v>
+        <v>1.048631968862068</v>
       </c>
       <c r="J4">
-        <v>1.043838242508672</v>
+        <v>1.033016772537896</v>
       </c>
       <c r="K4">
-        <v>1.048079473414449</v>
+        <v>1.04189409593097</v>
       </c>
       <c r="L4">
-        <v>1.05022867559141</v>
+        <v>1.038217728499487</v>
       </c>
       <c r="M4">
-        <v>1.060932603640604</v>
+        <v>1.050027800749563</v>
       </c>
       <c r="N4">
-        <v>1.045320612542954</v>
+        <v>1.03448377484358</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039575777467496</v>
+        <v>1.015099521034289</v>
       </c>
       <c r="D5">
-        <v>1.045806940139133</v>
+        <v>1.03298884531158</v>
       </c>
       <c r="E5">
-        <v>1.047992234786214</v>
+        <v>1.029374941175411</v>
       </c>
       <c r="F5">
-        <v>1.058729425816858</v>
+        <v>1.041352099043489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037424162729044</v>
+        <v>1.048871459114327</v>
       </c>
       <c r="J5">
-        <v>1.043993690045021</v>
+        <v>1.0336796835544</v>
       </c>
       <c r="K5">
-        <v>1.048215113411468</v>
+        <v>1.042489742038091</v>
       </c>
       <c r="L5">
-        <v>1.05039512270698</v>
+        <v>1.038915259630019</v>
       </c>
       <c r="M5">
-        <v>1.061106685075199</v>
+        <v>1.050763051393609</v>
       </c>
       <c r="N5">
-        <v>1.045476280832635</v>
+        <v>1.035147627269764</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039618188247749</v>
+        <v>1.015289545442212</v>
       </c>
       <c r="D6">
-        <v>1.045838402267072</v>
+        <v>1.033126026672975</v>
       </c>
       <c r="E6">
-        <v>1.048028869286182</v>
+        <v>1.029529590992391</v>
       </c>
       <c r="F6">
-        <v>1.058767245816647</v>
+        <v>1.041512510903519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037430524930064</v>
+        <v>1.048911381471124</v>
       </c>
       <c r="J6">
-        <v>1.044019791364857</v>
+        <v>1.033790555900623</v>
       </c>
       <c r="K6">
-        <v>1.048237884479439</v>
+        <v>1.042589335035723</v>
       </c>
       <c r="L6">
-        <v>1.050423073848697</v>
+        <v>1.039031949210539</v>
       </c>
       <c r="M6">
-        <v>1.061135916751314</v>
+        <v>1.050886041676442</v>
       </c>
       <c r="N6">
-        <v>1.045502419219339</v>
+        <v>1.035258657067436</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039326620850085</v>
+        <v>1.013978861405963</v>
       </c>
       <c r="D7">
-        <v>1.045622097639716</v>
+        <v>1.032180004574668</v>
       </c>
       <c r="E7">
-        <v>1.047777039774599</v>
+        <v>1.028463349974824</v>
       </c>
       <c r="F7">
-        <v>1.05850725671635</v>
+        <v>1.04040646460407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037386684022871</v>
+        <v>1.048635188367687</v>
       </c>
       <c r="J7">
-        <v>1.043840319538778</v>
+        <v>1.033025659553077</v>
       </c>
       <c r="K7">
-        <v>1.048081286075332</v>
+        <v>1.041902083145634</v>
       </c>
       <c r="L7">
-        <v>1.05023089940107</v>
+        <v>1.038227077818098</v>
       </c>
       <c r="M7">
-        <v>1.060934929547508</v>
+        <v>1.050037656265185</v>
       </c>
       <c r="N7">
-        <v>1.045322692522682</v>
+        <v>1.034492674479342</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038109349407852</v>
+        <v>1.008396942071598</v>
       </c>
       <c r="D8">
-        <v>1.044718860810558</v>
+        <v>1.028156000620081</v>
       </c>
       <c r="E8">
-        <v>1.046726344255241</v>
+        <v>1.023934055236872</v>
       </c>
       <c r="F8">
-        <v>1.057422260220113</v>
+        <v>1.035706136624047</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037201118351832</v>
+        <v>1.047438304137156</v>
       </c>
       <c r="J8">
-        <v>1.04309030894647</v>
+        <v>1.02976433952066</v>
       </c>
       <c r="K8">
-        <v>1.04742623472514</v>
+        <v>1.038967623216522</v>
       </c>
       <c r="L8">
-        <v>1.049428220879776</v>
+        <v>1.034799297674173</v>
       </c>
       <c r="M8">
-        <v>1.06009522780818</v>
+        <v>1.046423228111405</v>
       </c>
       <c r="N8">
-        <v>1.044571616829304</v>
+        <v>1.0312267229984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035969850894696</v>
+        <v>0.9981420123364684</v>
       </c>
       <c r="D9">
-        <v>1.043130674763824</v>
+        <v>1.020785864036898</v>
       </c>
       <c r="E9">
-        <v>1.044882198548658</v>
+        <v>1.015660539717</v>
       </c>
       <c r="F9">
-        <v>1.05551694346111</v>
+        <v>1.027113088774469</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036865432572956</v>
+        <v>1.0451630815862</v>
       </c>
       <c r="J9">
-        <v>1.041769349124878</v>
+        <v>1.023760551971696</v>
       </c>
       <c r="K9">
-        <v>1.046270165486244</v>
+        <v>1.033550472287698</v>
       </c>
       <c r="L9">
-        <v>1.04801607111638</v>
+        <v>1.028504544465807</v>
       </c>
       <c r="M9">
-        <v>1.058617141837636</v>
+        <v>1.039781074511864</v>
       </c>
       <c r="N9">
-        <v>1.04324878109325</v>
+        <v>1.025214409382473</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034547288784873</v>
+        <v>0.9909946223587015</v>
       </c>
       <c r="D10">
-        <v>1.042074291999803</v>
+        <v>1.015668271274228</v>
       </c>
       <c r="E10">
-        <v>1.043657786103207</v>
+        <v>1.009929494531015</v>
       </c>
       <c r="F10">
-        <v>1.054251267463764</v>
+        <v>1.021156214887874</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036635833504705</v>
+        <v>1.043528299366832</v>
       </c>
       <c r="J10">
-        <v>1.04088922175804</v>
+        <v>1.019570145909995</v>
       </c>
       <c r="K10">
-        <v>1.045498327310359</v>
+        <v>1.029760277785026</v>
       </c>
       <c r="L10">
-        <v>1.047076245590065</v>
+        <v>1.024121753743603</v>
       </c>
       <c r="M10">
-        <v>1.057632899206667</v>
+        <v>1.035153712408167</v>
       </c>
       <c r="N10">
-        <v>1.042367403844599</v>
+        <v>1.021018052463518</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033932214491339</v>
+        <v>0.9878190100483929</v>
       </c>
       <c r="D11">
-        <v>1.041617458798077</v>
+        <v>1.013399960606572</v>
       </c>
       <c r="E11">
-        <v>1.043128813357303</v>
+        <v>1.007392307146563</v>
       </c>
       <c r="F11">
-        <v>1.053704314066608</v>
+        <v>1.018518061233978</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036535044777636</v>
+        <v>1.042790937666501</v>
       </c>
       <c r="J11">
-        <v>1.040508253627085</v>
+        <v>1.017707461558313</v>
       </c>
       <c r="K11">
-        <v>1.04516386166381</v>
+        <v>1.028073521638551</v>
       </c>
       <c r="L11">
-        <v>1.046669688853882</v>
+        <v>1.022176149012046</v>
       </c>
       <c r="M11">
-        <v>1.057207002198779</v>
+        <v>1.033099004272175</v>
       </c>
       <c r="N11">
-        <v>1.0419858946952</v>
+        <v>1.019152722886403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033703885708178</v>
+        <v>0.9866266746520377</v>
       </c>
       <c r="D12">
-        <v>1.041447860569683</v>
+        <v>1.012549186598089</v>
       </c>
       <c r="E12">
-        <v>1.042932512209539</v>
+        <v>1.006441118848787</v>
       </c>
       <c r="F12">
-        <v>1.053501317204002</v>
+        <v>1.017528878874466</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03649740202532</v>
+        <v>1.042512480631338</v>
       </c>
       <c r="J12">
-        <v>1.040366766265931</v>
+        <v>1.017008003200568</v>
       </c>
       <c r="K12">
-        <v>1.045039589230721</v>
+        <v>1.027439849511373</v>
       </c>
       <c r="L12">
-        <v>1.046518736106394</v>
+        <v>1.021445948909769</v>
       </c>
       <c r="M12">
-        <v>1.057048849630404</v>
+        <v>1.032327785988628</v>
       </c>
       <c r="N12">
-        <v>1.041844206405765</v>
+        <v>1.018452271217561</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033752856777821</v>
+        <v>0.9868830233271955</v>
       </c>
       <c r="D13">
-        <v>1.041484235867131</v>
+        <v>1.012732058548536</v>
       </c>
       <c r="E13">
-        <v>1.042974611168881</v>
+        <v>1.00664555540645</v>
       </c>
       <c r="F13">
-        <v>1.053544853179825</v>
+        <v>1.017741487704426</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036505485805216</v>
+        <v>1.042572419628807</v>
       </c>
       <c r="J13">
-        <v>1.040397114807984</v>
+        <v>1.017158387702239</v>
       </c>
       <c r="K13">
-        <v>1.045066247743652</v>
+        <v>1.027576102071444</v>
       </c>
       <c r="L13">
-        <v>1.04655111322262</v>
+        <v>1.021602924949845</v>
       </c>
       <c r="M13">
-        <v>1.057082771853525</v>
+        <v>1.032493583031747</v>
       </c>
       <c r="N13">
-        <v>1.041874598046228</v>
+        <v>1.018602869282474</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033913337956568</v>
+        <v>0.9877207156197245</v>
       </c>
       <c r="D14">
-        <v>1.041603437910579</v>
+        <v>1.013329805231471</v>
       </c>
       <c r="E14">
-        <v>1.043112583302576</v>
+        <v>1.00731386286308</v>
       </c>
       <c r="F14">
-        <v>1.053687530886095</v>
+        <v>1.018436486435595</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036531937401106</v>
+        <v>1.042768014333898</v>
       </c>
       <c r="J14">
-        <v>1.040496557798909</v>
+        <v>1.017649800617951</v>
       </c>
       <c r="K14">
-        <v>1.045153590013254</v>
+        <v>1.028021289401408</v>
       </c>
       <c r="L14">
-        <v>1.046657209810189</v>
+        <v>1.022115945747658</v>
       </c>
       <c r="M14">
-        <v>1.057193928340833</v>
+        <v>1.033035420541802</v>
       </c>
       <c r="N14">
-        <v>1.041974182257607</v>
+        <v>1.019094980060892</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034012233926274</v>
+        <v>0.9882351332686706</v>
       </c>
       <c r="D15">
-        <v>1.041676894195446</v>
+        <v>1.013696996126283</v>
       </c>
       <c r="E15">
-        <v>1.043197616772546</v>
+        <v>1.007724455166041</v>
       </c>
       <c r="F15">
-        <v>1.053775461378633</v>
+        <v>1.01886345869924</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036548207912448</v>
+        <v>1.042887917115136</v>
       </c>
       <c r="J15">
-        <v>1.040557830748455</v>
+        <v>1.017951562384899</v>
       </c>
       <c r="K15">
-        <v>1.045207399602896</v>
+        <v>1.028294629519644</v>
       </c>
       <c r="L15">
-        <v>1.046722587479958</v>
+        <v>1.022431028640967</v>
       </c>
       <c r="M15">
-        <v>1.057262421468387</v>
+        <v>1.033368192782134</v>
       </c>
       <c r="N15">
-        <v>1.042035542221769</v>
+        <v>1.019397170364162</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034588128407957</v>
+        <v>0.9912036223420202</v>
       </c>
       <c r="D16">
-        <v>1.042104623037832</v>
+        <v>1.015817678528578</v>
       </c>
       <c r="E16">
-        <v>1.04369291783529</v>
+        <v>1.010096673324071</v>
       </c>
       <c r="F16">
-        <v>1.054287590136059</v>
+        <v>1.021330026382601</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036642493691797</v>
+        <v>1.043576602768395</v>
       </c>
       <c r="J16">
-        <v>1.040914508259934</v>
+        <v>1.019692722576598</v>
       </c>
       <c r="K16">
-        <v>1.045520519436233</v>
+        <v>1.029871237770457</v>
       </c>
       <c r="L16">
-        <v>1.047103235835849</v>
+        <v>1.024249841716091</v>
       </c>
       <c r="M16">
-        <v>1.057661170753069</v>
+        <v>1.035288972799485</v>
       </c>
       <c r="N16">
-        <v>1.042392726256226</v>
+        <v>1.021140803203046</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034949614879132</v>
+        <v>0.9930436199319268</v>
       </c>
       <c r="D17">
-        <v>1.042373084530816</v>
+        <v>1.017133663812846</v>
       </c>
       <c r="E17">
-        <v>1.04400393117076</v>
+        <v>1.011569534039147</v>
       </c>
       <c r="F17">
-        <v>1.054609128798389</v>
+        <v>1.022861209589499</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036701270099829</v>
+        <v>1.044000607321477</v>
       </c>
       <c r="J17">
-        <v>1.041138279054681</v>
+        <v>1.020771771460508</v>
       </c>
       <c r="K17">
-        <v>1.045716863950786</v>
+        <v>1.030847802176093</v>
       </c>
       <c r="L17">
-        <v>1.047342112905126</v>
+        <v>1.025377703435571</v>
       </c>
       <c r="M17">
-        <v>1.05791137341513</v>
+        <v>1.036479930572051</v>
       </c>
       <c r="N17">
-        <v>1.042616814831169</v>
+        <v>1.022221384460141</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035160551003916</v>
+        <v>0.9941091140354578</v>
       </c>
       <c r="D18">
-        <v>1.04252973014976</v>
+        <v>1.017896229009441</v>
       </c>
       <c r="E18">
-        <v>1.044185456227075</v>
+        <v>1.012423292445425</v>
       </c>
       <c r="F18">
-        <v>1.054796782163976</v>
+        <v>1.023748680498177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036735421078879</v>
+        <v>1.044245086359357</v>
       </c>
       <c r="J18">
-        <v>1.041268813508045</v>
+        <v>1.021396534210855</v>
       </c>
       <c r="K18">
-        <v>1.045831363732669</v>
+        <v>1.031413038555262</v>
       </c>
       <c r="L18">
-        <v>1.047481483775407</v>
+        <v>1.026030974799988</v>
       </c>
       <c r="M18">
-        <v>1.058057339942244</v>
+        <v>1.037169696595827</v>
       </c>
       <c r="N18">
-        <v>1.042747534658429</v>
+        <v>1.022847034445254</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035232489519299</v>
+        <v>0.9944711250213223</v>
       </c>
       <c r="D19">
-        <v>1.042583151801692</v>
+        <v>1.018155401872801</v>
       </c>
       <c r="E19">
-        <v>1.044247371244599</v>
+        <v>1.012713508899954</v>
       </c>
       <c r="F19">
-        <v>1.054860784918165</v>
+        <v>1.024050340516905</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036747043220133</v>
+        <v>1.044327970453672</v>
       </c>
       <c r="J19">
-        <v>1.041313324506572</v>
+        <v>1.021608786863445</v>
       </c>
       <c r="K19">
-        <v>1.045870400979862</v>
+        <v>1.031605035585726</v>
       </c>
       <c r="L19">
-        <v>1.047529012031035</v>
+        <v>1.026252954390605</v>
       </c>
       <c r="M19">
-        <v>1.058107115382978</v>
+        <v>1.037404067977603</v>
       </c>
       <c r="N19">
-        <v>1.042792108867679</v>
+        <v>1.023059588520957</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034910821774756</v>
+        <v>0.992847011240789</v>
       </c>
       <c r="D20">
-        <v>1.042344275289541</v>
+        <v>1.016992993492407</v>
       </c>
       <c r="E20">
-        <v>1.04397055034773</v>
+        <v>1.011412064866902</v>
       </c>
       <c r="F20">
-        <v>1.054574619837704</v>
+        <v>1.022697514709519</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036694977628003</v>
+        <v>1.043955409916234</v>
       </c>
       <c r="J20">
-        <v>1.041114269240203</v>
+        <v>1.020656480773409</v>
       </c>
       <c r="K20">
-        <v>1.045695800583328</v>
+        <v>1.030743480830974</v>
       </c>
       <c r="L20">
-        <v>1.047316479724632</v>
+        <v>1.025257171769259</v>
       </c>
       <c r="M20">
-        <v>1.057884526177243</v>
+        <v>1.036352661254408</v>
       </c>
       <c r="N20">
-        <v>1.04259277092</v>
+        <v>1.022105930047042</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033866076451525</v>
+        <v>0.9874743940304654</v>
       </c>
       <c r="D21">
-        <v>1.04156833338277</v>
+        <v>1.013154013679185</v>
       </c>
       <c r="E21">
-        <v>1.043071948885913</v>
+        <v>1.007117308316862</v>
       </c>
       <c r="F21">
-        <v>1.053645511261196</v>
+        <v>1.018232085625636</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036524153728589</v>
+        <v>1.042710543817252</v>
       </c>
       <c r="J21">
-        <v>1.040467273722649</v>
+        <v>1.017505303619994</v>
       </c>
       <c r="K21">
-        <v>1.045127870903109</v>
+        <v>1.02789039221764</v>
       </c>
       <c r="L21">
-        <v>1.046625965327919</v>
+        <v>1.021965084140412</v>
       </c>
       <c r="M21">
-        <v>1.057161194284217</v>
+        <v>1.032876086813942</v>
       </c>
       <c r="N21">
-        <v>1.0419448565946</v>
+        <v>1.018950277860624</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033209998023382</v>
+        <v>0.9840221757358643</v>
       </c>
       <c r="D22">
-        <v>1.041080989247351</v>
+        <v>1.010692529942739</v>
       </c>
       <c r="E22">
-        <v>1.042508021427965</v>
+        <v>1.0043660976552</v>
       </c>
       <c r="F22">
-        <v>1.053062305046366</v>
+        <v>1.015370720585538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036415562285513</v>
+        <v>1.041901343145858</v>
       </c>
       <c r="J22">
-        <v>1.040060605016918</v>
+        <v>1.015480030503646</v>
       </c>
       <c r="K22">
-        <v>1.044770577523307</v>
+        <v>1.02605510058826</v>
       </c>
       <c r="L22">
-        <v>1.046192162372326</v>
+        <v>1.01985155467337</v>
       </c>
       <c r="M22">
-        <v>1.056706665267738</v>
+        <v>1.030643708844306</v>
       </c>
       <c r="N22">
-        <v>1.041537610372661</v>
+        <v>1.016922128624148</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033557721871787</v>
+        <v>0.9858595240606955</v>
       </c>
       <c r="D23">
-        <v>1.041339289611274</v>
+        <v>1.012002061200119</v>
       </c>
       <c r="E23">
-        <v>1.042806869097761</v>
+        <v>1.005829537135824</v>
       </c>
       <c r="F23">
-        <v>1.053371381974298</v>
+        <v>1.016892829164627</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036473241035455</v>
+        <v>1.042332876208411</v>
       </c>
       <c r="J23">
-        <v>1.040276175723877</v>
+        <v>1.016557953227784</v>
       </c>
       <c r="K23">
-        <v>1.044960005317728</v>
+        <v>1.027032052630424</v>
       </c>
       <c r="L23">
-        <v>1.046422095821186</v>
+        <v>1.020976231142987</v>
       </c>
       <c r="M23">
-        <v>1.056947594702358</v>
+        <v>1.031831663582481</v>
       </c>
       <c r="N23">
-        <v>1.04175348721475</v>
+        <v>1.018001582122195</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034928350439543</v>
+        <v>0.9929358741344309</v>
       </c>
       <c r="D24">
-        <v>1.042357292771</v>
+        <v>1.01705657186388</v>
       </c>
       <c r="E24">
-        <v>1.04398563334584</v>
+        <v>1.011483234869214</v>
       </c>
       <c r="F24">
-        <v>1.054590212626464</v>
+        <v>1.022771498785966</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036697821334035</v>
+        <v>1.043975841431196</v>
       </c>
       <c r="J24">
-        <v>1.041125118202662</v>
+        <v>1.020708589950965</v>
       </c>
       <c r="K24">
-        <v>1.045705318288732</v>
+        <v>1.030790632662248</v>
       </c>
       <c r="L24">
-        <v>1.047328062138527</v>
+        <v>1.025311649005796</v>
       </c>
       <c r="M24">
-        <v>1.057896657203475</v>
+        <v>1.036410183897222</v>
       </c>
       <c r="N24">
-        <v>1.04260363528923</v>
+        <v>1.022158113225607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03652230385677</v>
+        <v>1.000845689539097</v>
       </c>
       <c r="D25">
-        <v>1.043540841828093</v>
+        <v>1.022725951022641</v>
       </c>
       <c r="E25">
-        <v>1.045358077311575</v>
+        <v>1.017835956703429</v>
       </c>
       <c r="F25">
-        <v>1.056008722014586</v>
+        <v>1.029373323843226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036953241956487</v>
+        <v>1.045771592469809</v>
       </c>
       <c r="J25">
-        <v>1.042110763868668</v>
+        <v>1.02534462633776</v>
       </c>
       <c r="K25">
-        <v>1.04656924092541</v>
+        <v>1.034981429597635</v>
       </c>
       <c r="L25">
-        <v>1.048380868167555</v>
+        <v>1.030163561086768</v>
       </c>
       <c r="M25">
-        <v>1.058999066628562</v>
+        <v>1.041532148318323</v>
       </c>
       <c r="N25">
-        <v>1.043590680685137</v>
+        <v>1.026800733315832</v>
       </c>
     </row>
   </sheetData>
